--- a/Daily EBITDA Format.xlsx
+++ b/Daily EBITDA Format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9fc378b064a2221d/Creative Cosmos/Office Projects/TCG Digital/GSMPL/EBITDA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aritramondal/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{40AEE3D5-E17A-104C-BC31-F660AA698591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{382C1337-9680-42B0-BFE4-8B0F85BFEC66}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AEE3D5-E17A-104C-BC31-F660AA698591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="740" windowWidth="24960" windowHeight="16920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily EBITDA per kg" sheetId="3" r:id="rId1"/>
@@ -698,25 +698,25 @@
       <selection activeCell="C43" sqref="C43:C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>78</v>
       </c>
@@ -737,7 +737,7 @@
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -790,7 +790,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -823,7 +823,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -856,7 +856,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -889,7 +889,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -922,7 +922,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>85</v>
@@ -953,7 +953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -984,7 +984,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>13</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>14</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>15</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>16</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>17</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>18</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>19</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>20</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>44</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>45</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>21</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>22</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>23</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>24</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>25</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>52</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>26</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>59</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="4" t="s">
         <v>75</v>
@@ -1983,7 +1983,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>27</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>28</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>29</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>62</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>64</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>68</v>
@@ -2173,7 +2173,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
         <v>69</v>
@@ -2202,7 +2202,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
         <v>71</v>
@@ -2231,7 +2231,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>73</v>
@@ -2260,7 +2260,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2279,7 +2279,7 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2298,7 +2298,7 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="3" t="s">
         <v>74</v>
@@ -2330,34 +2330,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B969F5B-253E-46C5-9668-DDB3B701FAA0}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>78</v>
       </c>
@@ -2378,7 +2375,7 @@
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2435,7 +2432,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -2468,7 +2465,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2501,7 +2498,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -2534,7 +2531,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2567,7 +2564,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>85</v>
@@ -2598,7 +2595,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -2629,7 +2626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -2662,7 +2659,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -2695,7 +2692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -2728,7 +2725,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -2761,7 +2758,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -2794,7 +2791,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -2827,7 +2824,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -2860,7 +2857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -2891,7 +2888,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -2922,7 +2919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -2955,7 +2952,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>13</v>
       </c>
@@ -2988,7 +2985,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -3019,7 +3016,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -3050,7 +3047,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>14</v>
       </c>
@@ -3083,7 +3080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>15</v>
       </c>
@@ -3116,7 +3113,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>16</v>
       </c>
@@ -3149,7 +3146,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>17</v>
       </c>
@@ -3182,7 +3179,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>18</v>
       </c>
@@ -3215,7 +3212,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>19</v>
       </c>
@@ -3248,7 +3245,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>20</v>
       </c>
@@ -3281,7 +3278,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>44</v>
       </c>
@@ -3312,7 +3309,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>45</v>
       </c>
@@ -3343,7 +3340,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>21</v>
       </c>
@@ -3376,7 +3373,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>22</v>
       </c>
@@ -3409,7 +3406,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>23</v>
       </c>
@@ -3442,7 +3439,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>24</v>
       </c>
@@ -3475,7 +3472,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>25</v>
       </c>
@@ -3508,7 +3505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>52</v>
       </c>
@@ -3539,7 +3536,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>26</v>
       </c>
@@ -3572,7 +3569,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>59</v>
       </c>
@@ -3603,7 +3600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="4" t="s">
         <v>75</v>
@@ -3628,7 +3625,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>27</v>
       </c>
@@ -3661,7 +3658,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>28</v>
       </c>
@@ -3694,7 +3691,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>29</v>
       </c>
@@ -3727,7 +3724,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>62</v>
       </c>
@@ -3758,7 +3755,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>64</v>
       </c>
@@ -3789,7 +3786,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>68</v>
@@ -3818,7 +3815,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
         <v>69</v>
@@ -3847,7 +3844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
         <v>71</v>
@@ -3876,7 +3873,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>73</v>
@@ -3905,7 +3902,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3924,7 +3921,7 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3943,7 +3940,7 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="3" t="s">
         <v>74</v>
@@ -3969,6 +3966,6 @@
     <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="97" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Daily EBITDA Format.xlsx
+++ b/Daily EBITDA Format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aritramondal/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9fc378b064a2221d/Creative Cosmos/Office Projects/TCG Digital/GSMPL/EBITDA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AEE3D5-E17A-104C-BC31-F660AA698591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{40AEE3D5-E17A-104C-BC31-F660AA698591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F75F1B63-10C2-4F05-9193-3CA5095CC87F}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="740" windowWidth="24960" windowHeight="16920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily EBITDA per kg" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="88">
   <si>
     <t>Sr No.</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>Per Kg</t>
+  </si>
+  <si>
+    <t>GM daily EBITDA</t>
   </si>
 </sst>
 </file>
@@ -698,25 +701,25 @@
       <selection activeCell="C43" sqref="C43:C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.6640625" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>78</v>
       </c>
@@ -737,7 +740,7 @@
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -790,7 +793,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -823,7 +826,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -856,7 +859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -889,7 +892,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -922,7 +925,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>85</v>
@@ -953,7 +956,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -984,7 +987,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1017,7 +1020,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1050,7 +1053,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1083,7 +1086,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1116,7 +1119,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1149,7 +1152,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1182,7 +1185,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1215,7 +1218,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -1246,7 +1249,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1277,7 +1280,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -1310,7 +1313,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>13</v>
       </c>
@@ -1343,7 +1346,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -1374,7 +1377,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -1405,7 +1408,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>14</v>
       </c>
@@ -1438,7 +1441,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>15</v>
       </c>
@@ -1471,7 +1474,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>16</v>
       </c>
@@ -1504,7 +1507,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>17</v>
       </c>
@@ -1537,7 +1540,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>18</v>
       </c>
@@ -1570,7 +1573,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>19</v>
       </c>
@@ -1603,7 +1606,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>20</v>
       </c>
@@ -1636,7 +1639,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>44</v>
       </c>
@@ -1667,7 +1670,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>45</v>
       </c>
@@ -1698,7 +1701,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>21</v>
       </c>
@@ -1731,7 +1734,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>22</v>
       </c>
@@ -1764,7 +1767,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>23</v>
       </c>
@@ -1797,7 +1800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>24</v>
       </c>
@@ -1830,7 +1833,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>25</v>
       </c>
@@ -1863,7 +1866,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>52</v>
       </c>
@@ -1894,7 +1897,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>26</v>
       </c>
@@ -1927,7 +1930,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>59</v>
       </c>
@@ -1958,7 +1961,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="4" t="s">
         <v>75</v>
@@ -1983,7 +1986,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>27</v>
       </c>
@@ -2016,7 +2019,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>28</v>
       </c>
@@ -2049,7 +2052,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>29</v>
       </c>
@@ -2082,7 +2085,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>62</v>
       </c>
@@ -2113,7 +2116,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>64</v>
       </c>
@@ -2144,7 +2147,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>68</v>
@@ -2173,7 +2176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
         <v>69</v>
@@ -2202,7 +2205,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
         <v>71</v>
@@ -2231,7 +2234,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>73</v>
@@ -2260,7 +2263,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2279,7 +2282,7 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2298,7 +2301,7 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="3" t="s">
         <v>74</v>
@@ -2333,30 +2336,30 @@
   <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.6640625" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -2375,7 +2378,7 @@
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2432,7 +2435,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -2465,7 +2468,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2498,7 +2501,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -2531,7 +2534,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2564,7 +2567,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>85</v>
@@ -2595,7 +2598,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -2626,7 +2629,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -2659,7 +2662,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -2692,7 +2695,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -2725,7 +2728,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -2758,7 +2761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -2791,7 +2794,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -2824,7 +2827,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -2857,7 +2860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -2888,7 +2891,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -2919,7 +2922,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -2952,7 +2955,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>13</v>
       </c>
@@ -2985,7 +2988,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -3016,7 +3019,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -3047,7 +3050,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>14</v>
       </c>
@@ -3080,7 +3083,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>15</v>
       </c>
@@ -3113,7 +3116,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>16</v>
       </c>
@@ -3146,7 +3149,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>17</v>
       </c>
@@ -3179,7 +3182,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>18</v>
       </c>
@@ -3212,7 +3215,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>19</v>
       </c>
@@ -3245,7 +3248,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>20</v>
       </c>
@@ -3278,7 +3281,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>44</v>
       </c>
@@ -3309,7 +3312,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>45</v>
       </c>
@@ -3340,7 +3343,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>21</v>
       </c>
@@ -3373,7 +3376,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>22</v>
       </c>
@@ -3406,7 +3409,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>23</v>
       </c>
@@ -3439,7 +3442,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>24</v>
       </c>
@@ -3472,7 +3475,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>25</v>
       </c>
@@ -3505,7 +3508,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>52</v>
       </c>
@@ -3536,7 +3539,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>26</v>
       </c>
@@ -3569,7 +3572,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>59</v>
       </c>
@@ -3600,7 +3603,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="4" t="s">
         <v>75</v>
@@ -3625,7 +3628,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>27</v>
       </c>
@@ -3658,7 +3661,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>28</v>
       </c>
@@ -3691,7 +3694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>29</v>
       </c>
@@ -3724,7 +3727,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>62</v>
       </c>
@@ -3755,7 +3758,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>64</v>
       </c>
@@ -3786,7 +3789,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>68</v>
@@ -3815,7 +3818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
         <v>69</v>
@@ -3844,7 +3847,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
         <v>71</v>
@@ -3873,7 +3876,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>73</v>
@@ -3902,7 +3905,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3921,7 +3924,7 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3940,7 +3943,7 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="3" t="s">
         <v>74</v>
